--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Number line and fractions.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Number line and fractions.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3539,12 +3539,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3653,12 +3653,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3995,12 +3995,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4185,12 +4185,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4299,12 +4299,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4375,12 +4375,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4829,12 +4829,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4867,12 +4867,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4905,12 +4905,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
